--- a/R0/R0_R/r0manual.xlsx
+++ b/R0/R0_R/r0manual.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -543,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/R0/R0_R/r0manual.xlsx
+++ b/R0/R0_R/r0manual.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -545,7 +544,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,9 +613,9 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <f>C2*LN(C2-L2-F2-I2)</f>
-        <v>6605507.6331164092</v>
+      <c r="E2" s="2" t="e">
+        <f>C2*LN(T4-L2-N2-P2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="F2" s="1">
         <v>127</v>
@@ -660,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E48" si="0">C3*LN(C3-L3-F3-I3)</f>
+        <f>C3*LN(C3-L3-F3-I3)</f>
         <v>6605478.6249584388</v>
       </c>
       <c r="F3" s="1">
@@ -705,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E48" si="0">C4*LN(C4-L4-F4-I4)</f>
         <v>6605461.6193986014</v>
       </c>
       <c r="F4" s="1">
